--- a/partdb.xlsx
+++ b/partdb.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
     <sheet name="igem_part" sheetId="2" r:id="rId2"/>
-    <sheet name="igem_obs" sheetId="3" r:id="rId3"/>
-    <sheet name="igem_device" sheetId="4" r:id="rId4"/>
+    <sheet name="igem_device" sheetId="4" r:id="rId3"/>
+    <sheet name="igem_obs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bbid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,10 @@
   </si>
   <si>
     <t>Reporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +614,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>2020</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -661,16 +661,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <v>2019</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +684,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -700,25 +700,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -726,17 +726,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -752,16 +752,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -778,16 +778,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -804,16 +804,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -830,17 +830,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -856,25 +856,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -897,6 +897,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -911,34 +963,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -946,34 +998,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2">
         <v>0.02</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>3000</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -981,34 +1033,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
       <c r="D3">
         <v>0.2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>8200</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1016,34 +1068,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
       <c r="F4">
         <v>8000</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1051,22 +1103,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1078,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1086,22 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
       <c r="D6">
         <v>1E-3</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1113,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1121,22 +1173,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>600</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1148,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1156,22 +1208,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>750</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1183,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1191,22 +1243,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
       <c r="D9">
         <v>0.05</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>2000</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1218,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1226,22 +1278,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
       </c>
       <c r="D10">
         <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>5000</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1253,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1261,22 +1313,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
       <c r="F11">
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1288,59 +1340,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
